--- a/insitu/30mv/insitu-30mv-Layer2-Test4.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer2-Test4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D06057B-2967-EE4A-A210-2DB41879B9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226DBA7-A4E3-F244-96A8-831477FB61BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,288 +191,246 @@
             <c:v>频率</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB73-E64D-A9F1-01006ABE017F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$7:$G$94</c:f>
+              <c:f>Sheet1!$G$3:$G$81</c:f>
               <c:strCache>
-                <c:ptCount val="88"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
+                  <c:v>0.55063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56663</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.56863</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>0.57063</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>0.57263</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>0.57463</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>0.57663</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>0.57863</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>0.58063</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>0.58263</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>0.58463</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>0.58663</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>0.58863</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>0.59063</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>0.59263</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>0.59463</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>0.59663</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>0.59863</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>0.60063</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>0.60263</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>0.60463</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>0.60663</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>0.60863</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>0.61063</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
                   <c:v>0.61263</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>0.61463</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>0.61663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
                   <c:v>0.61863</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="35">
                   <c:v>0.62063</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="36">
                   <c:v>0.62263</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>0.62463</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>0.62663</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
                   <c:v>0.62863</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
                   <c:v>0.63063</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="41">
                   <c:v>0.63263</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
                   <c:v>0.63463</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
                   <c:v>0.63663</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="44">
                   <c:v>0.63863</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="45">
                   <c:v>0.64063</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>0.64263</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>0.64463</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>0.64663</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>0.64863</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>0.65063</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>0.65263</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>0.65463</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>0.65663</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>0.65863</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="55">
                   <c:v>0.66063</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="56">
                   <c:v>0.66263</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>0.66463</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>0.66663</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>0.66863</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>0.67063</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
                   <c:v>0.67263</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>0.67463</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>0.67663</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
                   <c:v>0.67863</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="65">
                   <c:v>0.68063</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="66">
                   <c:v>0.68263</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="67">
                   <c:v>0.68463</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="68">
                   <c:v>0.68663</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="69">
                   <c:v>0.68863</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="70">
                   <c:v>0.69063</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="71">
                   <c:v>0.69263</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
                   <c:v>0.69463</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="73">
                   <c:v>0.69663</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="74">
                   <c:v>0.69863</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="75">
                   <c:v>0.70063</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="76">
                   <c:v>0.70263</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="77">
                   <c:v>0.70463</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.70663</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.70863</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71063</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.71263</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.71463</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.71663</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.71863</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.72063</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.72263</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.72463</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.72663</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.72863</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.73063</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.73263</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.73463</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.73663</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.73863</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.74063</c:v>
-                </c:pt>
-                <c:pt idx="87">
                   <c:v>其他</c:v>
                 </c:pt>
               </c:strCache>
@@ -480,168 +438,168 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$94</c:f>
+              <c:f>Sheet1!$H$3:$H$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -719,33 +677,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -753,7 +684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB73-E64D-A9F1-01006ABE017F}"/>
+              <c16:uniqueId val="{00000001-AFE9-EE40-A1B8-1794E8BD6EBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,11 +697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="850003424"/>
-        <c:axId val="849964496"/>
+        <c:axId val="1801165983"/>
+        <c:axId val="23450832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="850003424"/>
+        <c:axId val="1801165983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="849964496"/>
+        <c:crossAx val="23450832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="849964496"/>
+        <c:axId val="23450832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="850003424"/>
+        <c:crossAx val="1801165983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -868,21 +799,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF84BB7-0FD9-364B-8C88-0FD533679035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52ACAB8-95B2-5E45-9A9D-F587B08C4E22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,13 +1121,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1140,13 @@
         <v>0.60143000000000002</v>
       </c>
       <c r="D2">
-        <v>0.56862999999999997</v>
+        <v>0.55062999999999995</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1214,7 +1154,13 @@
         <v>0.58431999999999995</v>
       </c>
       <c r="D3">
-        <v>0.57062999999999997</v>
+        <v>0.55262999999999995</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.55062999999999995</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1222,15 +1168,27 @@
         <v>0.58613000000000004</v>
       </c>
       <c r="D4">
-        <v>0.57262999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+        <v>0.55462999999999996</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.55262999999999995</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.59535000000000005</v>
       </c>
       <c r="D5">
-        <v>0.57462999999999997</v>
+        <v>0.55662999999999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.55462999999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1238,13 +1196,13 @@
         <v>0.59077999999999997</v>
       </c>
       <c r="D6">
-        <v>0.57662999999999998</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>0.55862999999999996</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.55662999999999996</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1252,13 +1210,13 @@
         <v>0.59779000000000004</v>
       </c>
       <c r="D7">
-        <v>0.57862999999999998</v>
+        <v>0.56062999999999996</v>
       </c>
       <c r="G7" s="3">
-        <v>0.56862999999999997</v>
+        <v>0.55862999999999996</v>
       </c>
       <c r="H7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1266,13 +1224,13 @@
         <v>0.57550999999999997</v>
       </c>
       <c r="D8">
-        <v>0.58062999999999998</v>
+        <v>0.56262999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.57062999999999997</v>
+        <v>0.56062999999999996</v>
       </c>
       <c r="H8" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1280,13 +1238,13 @@
         <v>0.59331</v>
       </c>
       <c r="D9">
-        <v>0.58262999999999998</v>
+        <v>0.56462999999999997</v>
       </c>
       <c r="G9" s="3">
-        <v>0.57262999999999997</v>
+        <v>0.56262999999999996</v>
       </c>
       <c r="H9" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1294,13 +1252,13 @@
         <v>0.58455000000000001</v>
       </c>
       <c r="D10">
-        <v>0.58462999999999998</v>
+        <v>0.56662999999999997</v>
       </c>
       <c r="G10" s="3">
-        <v>0.57462999999999997</v>
+        <v>0.56462999999999997</v>
       </c>
       <c r="H10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1308,13 +1266,13 @@
         <v>0.58411000000000002</v>
       </c>
       <c r="D11">
-        <v>0.58662999999999998</v>
+        <v>0.56862999999999997</v>
       </c>
       <c r="G11" s="3">
-        <v>0.57662999999999998</v>
+        <v>0.56662999999999997</v>
       </c>
       <c r="H11" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1322,10 +1280,10 @@
         <v>0.59487000000000001</v>
       </c>
       <c r="D12">
-        <v>0.58862999999999999</v>
+        <v>0.57062999999999997</v>
       </c>
       <c r="G12" s="3">
-        <v>0.57862999999999998</v>
+        <v>0.56862999999999997</v>
       </c>
       <c r="H12" s="4">
         <v>4</v>
@@ -1336,13 +1294,13 @@
         <v>0.59985999999999995</v>
       </c>
       <c r="D13">
-        <v>0.59062999999999999</v>
+        <v>0.57262999999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0.58062999999999998</v>
+        <v>0.57062999999999997</v>
       </c>
       <c r="H13" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1350,13 +1308,13 @@
         <v>0.60182000000000002</v>
       </c>
       <c r="D14">
-        <v>0.59262999999999999</v>
+        <v>0.57462999999999997</v>
       </c>
       <c r="G14" s="3">
-        <v>0.58262999999999998</v>
+        <v>0.57262999999999997</v>
       </c>
       <c r="H14" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1364,13 +1322,13 @@
         <v>0.58735000000000004</v>
       </c>
       <c r="D15">
-        <v>0.59462999999999999</v>
+        <v>0.57662999999999998</v>
       </c>
       <c r="G15" s="3">
-        <v>0.58462999999999998</v>
+        <v>0.57462999999999997</v>
       </c>
       <c r="H15" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1378,13 +1336,13 @@
         <v>0.58606000000000003</v>
       </c>
       <c r="D16">
-        <v>0.59662999999999999</v>
+        <v>0.57862999999999998</v>
       </c>
       <c r="G16" s="3">
-        <v>0.58662999999999998</v>
+        <v>0.57662999999999998</v>
       </c>
       <c r="H16" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1392,13 +1350,13 @@
         <v>0.59892999999999996</v>
       </c>
       <c r="D17">
-        <v>0.59863</v>
+        <v>0.58062999999999998</v>
       </c>
       <c r="G17" s="3">
-        <v>0.58862999999999999</v>
+        <v>0.57862999999999998</v>
       </c>
       <c r="H17" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1406,13 +1364,13 @@
         <v>0.58872000000000002</v>
       </c>
       <c r="D18">
-        <v>0.60063</v>
+        <v>0.58262999999999998</v>
       </c>
       <c r="G18" s="3">
-        <v>0.59062999999999999</v>
+        <v>0.58062999999999998</v>
       </c>
       <c r="H18" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1420,13 +1378,13 @@
         <v>0.59914999999999996</v>
       </c>
       <c r="D19">
-        <v>0.60263</v>
+        <v>0.58462999999999998</v>
       </c>
       <c r="G19" s="3">
-        <v>0.59262999999999999</v>
+        <v>0.58262999999999998</v>
       </c>
       <c r="H19" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1434,10 +1392,10 @@
         <v>0.59318000000000004</v>
       </c>
       <c r="D20">
-        <v>0.60463</v>
+        <v>0.58662999999999998</v>
       </c>
       <c r="G20" s="3">
-        <v>0.59462999999999999</v>
+        <v>0.58462999999999998</v>
       </c>
       <c r="H20" s="4">
         <v>6</v>
@@ -1448,13 +1406,13 @@
         <v>0.58520000000000005</v>
       </c>
       <c r="D21">
-        <v>0.60663</v>
+        <v>0.58862999999999999</v>
       </c>
       <c r="G21" s="3">
-        <v>0.59662999999999999</v>
+        <v>0.58662999999999998</v>
       </c>
       <c r="H21" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1462,13 +1420,13 @@
         <v>0.62329000000000001</v>
       </c>
       <c r="D22">
-        <v>0.60863</v>
+        <v>0.59062999999999999</v>
       </c>
       <c r="G22" s="3">
-        <v>0.59863</v>
+        <v>0.58862999999999999</v>
       </c>
       <c r="H22" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1476,10 +1434,10 @@
         <v>0.61782000000000004</v>
       </c>
       <c r="D23">
-        <v>0.61063000000000001</v>
+        <v>0.59262999999999999</v>
       </c>
       <c r="G23" s="3">
-        <v>0.60063</v>
+        <v>0.59062999999999999</v>
       </c>
       <c r="H23" s="4">
         <v>4</v>
@@ -1490,13 +1448,13 @@
         <v>0.61480000000000001</v>
       </c>
       <c r="D24">
-        <v>0.61263000000000001</v>
+        <v>0.59462999999999999</v>
       </c>
       <c r="G24" s="3">
-        <v>0.60263</v>
+        <v>0.59262999999999999</v>
       </c>
       <c r="H24" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1504,13 +1462,13 @@
         <v>0.60911999999999999</v>
       </c>
       <c r="D25">
-        <v>0.61463000000000001</v>
+        <v>0.59662999999999999</v>
       </c>
       <c r="G25" s="3">
-        <v>0.60463</v>
+        <v>0.59462999999999999</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1518,13 +1476,13 @@
         <v>0.61543999999999999</v>
       </c>
       <c r="D26">
-        <v>0.61663000000000001</v>
+        <v>0.59863</v>
       </c>
       <c r="G26" s="3">
-        <v>0.60663</v>
+        <v>0.59662999999999999</v>
       </c>
       <c r="H26" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1532,13 +1490,13 @@
         <v>0.62373999999999996</v>
       </c>
       <c r="D27">
-        <v>0.61863000000000001</v>
+        <v>0.60063</v>
       </c>
       <c r="G27" s="3">
-        <v>0.60863</v>
+        <v>0.59863</v>
       </c>
       <c r="H27" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1546,10 +1504,10 @@
         <v>0.62644</v>
       </c>
       <c r="D28">
-        <v>0.62063000000000001</v>
+        <v>0.60263</v>
       </c>
       <c r="G28" s="3">
-        <v>0.61063000000000001</v>
+        <v>0.60063</v>
       </c>
       <c r="H28" s="4">
         <v>4</v>
@@ -1560,13 +1518,13 @@
         <v>0.62861</v>
       </c>
       <c r="D29">
-        <v>0.62263000000000002</v>
+        <v>0.60463</v>
       </c>
       <c r="G29" s="3">
-        <v>0.61263000000000001</v>
+        <v>0.60263</v>
       </c>
       <c r="H29" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1574,10 +1532,10 @@
         <v>0.60702</v>
       </c>
       <c r="D30">
-        <v>0.62463000000000002</v>
+        <v>0.60663</v>
       </c>
       <c r="G30" s="3">
-        <v>0.61463000000000001</v>
+        <v>0.60463</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -1588,10 +1546,10 @@
         <v>0.62755000000000005</v>
       </c>
       <c r="D31">
-        <v>0.62663000000000002</v>
+        <v>0.60863</v>
       </c>
       <c r="G31" s="3">
-        <v>0.61663000000000001</v>
+        <v>0.60663</v>
       </c>
       <c r="H31" s="4">
         <v>5</v>
@@ -1602,10 +1560,10 @@
         <v>0.62756000000000001</v>
       </c>
       <c r="D32">
-        <v>0.62863000000000002</v>
+        <v>0.61063000000000001</v>
       </c>
       <c r="G32" s="3">
-        <v>0.61863000000000001</v>
+        <v>0.60863</v>
       </c>
       <c r="H32" s="4">
         <v>7</v>
@@ -1616,13 +1574,13 @@
         <v>0.63061999999999996</v>
       </c>
       <c r="D33">
-        <v>0.63063000000000002</v>
+        <v>0.61263000000000001</v>
       </c>
       <c r="G33" s="3">
-        <v>0.62063000000000001</v>
+        <v>0.61063000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1630,13 +1588,13 @@
         <v>0.62822</v>
       </c>
       <c r="D34">
-        <v>0.63263000000000003</v>
+        <v>0.61463000000000001</v>
       </c>
       <c r="G34" s="3">
-        <v>0.62263000000000002</v>
+        <v>0.61263000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1644,13 +1602,13 @@
         <v>0.61806000000000005</v>
       </c>
       <c r="D35">
-        <v>0.63463000000000003</v>
+        <v>0.61663000000000001</v>
       </c>
       <c r="G35" s="3">
-        <v>0.62463000000000002</v>
+        <v>0.61463000000000001</v>
       </c>
       <c r="H35" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1658,13 +1616,13 @@
         <v>0.61758999999999997</v>
       </c>
       <c r="D36">
-        <v>0.63663000000000003</v>
+        <v>0.61863000000000001</v>
       </c>
       <c r="G36" s="3">
-        <v>0.62663000000000002</v>
+        <v>0.61663000000000001</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1672,13 +1630,13 @@
         <v>0.62336999999999998</v>
       </c>
       <c r="D37">
-        <v>0.63863000000000003</v>
+        <v>0.62063000000000001</v>
       </c>
       <c r="G37" s="3">
-        <v>0.62863000000000002</v>
+        <v>0.61863000000000001</v>
       </c>
       <c r="H37" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1686,13 +1644,13 @@
         <v>0.62624000000000002</v>
       </c>
       <c r="D38">
-        <v>0.64063000000000003</v>
+        <v>0.62263000000000002</v>
       </c>
       <c r="G38" s="3">
-        <v>0.63063000000000002</v>
+        <v>0.62063000000000001</v>
       </c>
       <c r="H38" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1700,13 +1658,13 @@
         <v>0.62109999999999999</v>
       </c>
       <c r="D39">
-        <v>0.64263000000000003</v>
+        <v>0.62463000000000002</v>
       </c>
       <c r="G39" s="3">
-        <v>0.63263000000000003</v>
+        <v>0.62263000000000002</v>
       </c>
       <c r="H39" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1714,13 +1672,13 @@
         <v>0.62427999999999995</v>
       </c>
       <c r="D40">
-        <v>0.64463000000000004</v>
+        <v>0.62663000000000002</v>
       </c>
       <c r="G40" s="3">
-        <v>0.63463000000000003</v>
+        <v>0.62463000000000002</v>
       </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1728,10 +1686,10 @@
         <v>0.63129000000000002</v>
       </c>
       <c r="D41">
-        <v>0.64663000000000004</v>
+        <v>0.62863000000000002</v>
       </c>
       <c r="G41" s="3">
-        <v>0.63663000000000003</v>
+        <v>0.62663000000000002</v>
       </c>
       <c r="H41" s="4">
         <v>3</v>
@@ -1742,13 +1700,13 @@
         <v>0.56779999999999997</v>
       </c>
       <c r="D42">
-        <v>0.64863000000000004</v>
+        <v>0.63063000000000002</v>
       </c>
       <c r="G42" s="3">
-        <v>0.63863000000000003</v>
+        <v>0.62863000000000002</v>
       </c>
       <c r="H42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1756,13 +1714,13 @@
         <v>0.59355999999999998</v>
       </c>
       <c r="D43">
-        <v>0.65063000000000004</v>
+        <v>0.63263000000000003</v>
       </c>
       <c r="G43" s="3">
-        <v>0.64063000000000003</v>
+        <v>0.63063000000000002</v>
       </c>
       <c r="H43" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1770,13 +1728,13 @@
         <v>0.58636999999999995</v>
       </c>
       <c r="D44">
-        <v>0.65263000000000004</v>
+        <v>0.63463000000000003</v>
       </c>
       <c r="G44" s="3">
-        <v>0.64263000000000003</v>
+        <v>0.63263000000000003</v>
       </c>
       <c r="H44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1784,13 +1742,13 @@
         <v>0.61678999999999995</v>
       </c>
       <c r="D45">
-        <v>0.65463000000000005</v>
+        <v>0.63663000000000003</v>
       </c>
       <c r="G45" s="3">
-        <v>0.64463000000000004</v>
+        <v>0.63463000000000003</v>
       </c>
       <c r="H45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1798,10 +1756,10 @@
         <v>0.58504999999999996</v>
       </c>
       <c r="D46">
-        <v>0.65663000000000005</v>
+        <v>0.63863000000000003</v>
       </c>
       <c r="G46" s="3">
-        <v>0.64663000000000004</v>
+        <v>0.63663000000000003</v>
       </c>
       <c r="H46" s="4">
         <v>3</v>
@@ -1812,13 +1770,13 @@
         <v>0.61729999999999996</v>
       </c>
       <c r="D47">
-        <v>0.65863000000000005</v>
+        <v>0.64063000000000003</v>
       </c>
       <c r="G47" s="3">
-        <v>0.64863000000000004</v>
+        <v>0.63863000000000003</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1826,13 +1784,13 @@
         <v>0.61126000000000003</v>
       </c>
       <c r="D48">
-        <v>0.66063000000000005</v>
+        <v>0.64263000000000003</v>
       </c>
       <c r="G48" s="3">
-        <v>0.65063000000000004</v>
+        <v>0.64063000000000003</v>
       </c>
       <c r="H48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1840,10 +1798,10 @@
         <v>0.61112</v>
       </c>
       <c r="D49">
-        <v>0.66263000000000005</v>
+        <v>0.64463000000000004</v>
       </c>
       <c r="G49" s="3">
-        <v>0.65263000000000004</v>
+        <v>0.64263000000000003</v>
       </c>
       <c r="H49" s="4">
         <v>1</v>
@@ -1854,13 +1812,13 @@
         <v>0.59241999999999995</v>
       </c>
       <c r="D50">
-        <v>0.66463000000000005</v>
+        <v>0.64663000000000004</v>
       </c>
       <c r="G50" s="3">
-        <v>0.65463000000000005</v>
+        <v>0.64463000000000004</v>
       </c>
       <c r="H50" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1868,13 +1826,13 @@
         <v>0.58486000000000005</v>
       </c>
       <c r="D51">
-        <v>0.66662999999999994</v>
+        <v>0.64863000000000004</v>
       </c>
       <c r="G51" s="3">
-        <v>0.65663000000000005</v>
+        <v>0.64663000000000004</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1882,10 +1840,10 @@
         <v>0.62090000000000001</v>
       </c>
       <c r="D52">
-        <v>0.66862999999999995</v>
+        <v>0.65063000000000004</v>
       </c>
       <c r="G52" s="3">
-        <v>0.65863000000000005</v>
+        <v>0.64863000000000004</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
@@ -1896,13 +1854,13 @@
         <v>0.62765000000000004</v>
       </c>
       <c r="D53">
-        <v>0.67062999999999995</v>
+        <v>0.65263000000000004</v>
       </c>
       <c r="G53" s="3">
-        <v>0.66063000000000005</v>
+        <v>0.65063000000000004</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1910,13 +1868,13 @@
         <v>0.60741999999999996</v>
       </c>
       <c r="D54">
-        <v>0.67262999999999995</v>
+        <v>0.65463000000000005</v>
       </c>
       <c r="G54" s="3">
-        <v>0.66263000000000005</v>
+        <v>0.65263000000000004</v>
       </c>
       <c r="H54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1924,13 +1882,13 @@
         <v>0.59611000000000003</v>
       </c>
       <c r="D55">
-        <v>0.67462999999999995</v>
+        <v>0.65663000000000005</v>
       </c>
       <c r="G55" s="3">
-        <v>0.66463000000000005</v>
+        <v>0.65463000000000005</v>
       </c>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1938,10 +1896,10 @@
         <v>0.59135000000000004</v>
       </c>
       <c r="D56">
-        <v>0.67662999999999995</v>
+        <v>0.65863000000000005</v>
       </c>
       <c r="G56" s="3">
-        <v>0.66662999999999994</v>
+        <v>0.65663000000000005</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -1952,10 +1910,10 @@
         <v>0.59626000000000001</v>
       </c>
       <c r="D57">
-        <v>0.67862999999999996</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="G57" s="3">
-        <v>0.66862999999999995</v>
+        <v>0.65863000000000005</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -1966,10 +1924,10 @@
         <v>0.61243000000000003</v>
       </c>
       <c r="D58">
-        <v>0.68062999999999996</v>
+        <v>0.66263000000000005</v>
       </c>
       <c r="G58" s="3">
-        <v>0.67062999999999995</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -1980,10 +1938,10 @@
         <v>0.62375999999999998</v>
       </c>
       <c r="D59">
-        <v>0.68262999999999996</v>
+        <v>0.66463000000000005</v>
       </c>
       <c r="G59" s="3">
-        <v>0.67262999999999995</v>
+        <v>0.66263000000000005</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
@@ -1994,10 +1952,10 @@
         <v>0.62414999999999998</v>
       </c>
       <c r="D60">
-        <v>0.68462999999999996</v>
+        <v>0.66662999999999994</v>
       </c>
       <c r="G60" s="3">
-        <v>0.67462999999999995</v>
+        <v>0.66463000000000005</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
@@ -2008,10 +1966,10 @@
         <v>0.61402000000000001</v>
       </c>
       <c r="D61">
-        <v>0.68662999999999996</v>
+        <v>0.66862999999999995</v>
       </c>
       <c r="G61" s="3">
-        <v>0.67662999999999995</v>
+        <v>0.66662999999999994</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
@@ -2022,10 +1980,10 @@
         <v>0.63380999999999998</v>
       </c>
       <c r="D62">
-        <v>0.68862999999999996</v>
+        <v>0.67062999999999995</v>
       </c>
       <c r="G62" s="3">
-        <v>0.67862999999999996</v>
+        <v>0.66862999999999995</v>
       </c>
       <c r="H62" s="4">
         <v>0</v>
@@ -2036,10 +1994,10 @@
         <v>0.63827999999999996</v>
       </c>
       <c r="D63">
-        <v>0.69062999999999997</v>
+        <v>0.67262999999999995</v>
       </c>
       <c r="G63" s="3">
-        <v>0.68062999999999996</v>
+        <v>0.67062999999999995</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
@@ -2050,10 +2008,10 @@
         <v>0.63602999999999998</v>
       </c>
       <c r="D64">
-        <v>0.69262999999999997</v>
+        <v>0.67462999999999995</v>
       </c>
       <c r="G64" s="3">
-        <v>0.68262999999999996</v>
+        <v>0.67262999999999995</v>
       </c>
       <c r="H64" s="4">
         <v>0</v>
@@ -2064,10 +2022,10 @@
         <v>0.61607000000000001</v>
       </c>
       <c r="D65">
-        <v>0.69462999999999997</v>
+        <v>0.67662999999999995</v>
       </c>
       <c r="G65" s="3">
-        <v>0.68462999999999996</v>
+        <v>0.67462999999999995</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
@@ -2078,10 +2036,10 @@
         <v>0.64617000000000002</v>
       </c>
       <c r="D66">
-        <v>0.69662999999999997</v>
+        <v>0.67862999999999996</v>
       </c>
       <c r="G66" s="3">
-        <v>0.68662999999999996</v>
+        <v>0.67662999999999995</v>
       </c>
       <c r="H66" s="4">
         <v>0</v>
@@ -2092,10 +2050,10 @@
         <v>0.60562000000000005</v>
       </c>
       <c r="D67">
-        <v>0.69862999999999997</v>
+        <v>0.68062999999999996</v>
       </c>
       <c r="G67" s="3">
-        <v>0.68862999999999996</v>
+        <v>0.67862999999999996</v>
       </c>
       <c r="H67" s="4">
         <v>0</v>
@@ -2106,10 +2064,10 @@
         <v>0.64448000000000005</v>
       </c>
       <c r="D68">
-        <v>0.70062999999999998</v>
+        <v>0.68262999999999996</v>
       </c>
       <c r="G68" s="3">
-        <v>0.69062999999999997</v>
+        <v>0.68062999999999996</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
@@ -2120,10 +2078,10 @@
         <v>0.64507999999999999</v>
       </c>
       <c r="D69">
-        <v>0.70262999999999998</v>
+        <v>0.68462999999999996</v>
       </c>
       <c r="G69" s="3">
-        <v>0.69262999999999997</v>
+        <v>0.68262999999999996</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
@@ -2134,10 +2092,10 @@
         <v>0.63688</v>
       </c>
       <c r="D70">
-        <v>0.70462999999999998</v>
+        <v>0.68662999999999996</v>
       </c>
       <c r="G70" s="3">
-        <v>0.69462999999999997</v>
+        <v>0.68462999999999996</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
@@ -2148,10 +2106,10 @@
         <v>0.60875999999999997</v>
       </c>
       <c r="D71">
-        <v>0.70662999999999998</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="G71" s="3">
-        <v>0.69662999999999997</v>
+        <v>0.68662999999999996</v>
       </c>
       <c r="H71" s="4">
         <v>0</v>
@@ -2162,10 +2120,10 @@
         <v>0.64105999999999996</v>
       </c>
       <c r="D72">
-        <v>0.70862999999999998</v>
+        <v>0.69062999999999997</v>
       </c>
       <c r="G72" s="3">
-        <v>0.69862999999999997</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="H72" s="4">
         <v>0</v>
@@ -2176,10 +2134,10 @@
         <v>0.63249999999999995</v>
       </c>
       <c r="D73">
-        <v>0.71062999999999998</v>
+        <v>0.69262999999999997</v>
       </c>
       <c r="G73" s="3">
-        <v>0.70062999999999998</v>
+        <v>0.69062999999999997</v>
       </c>
       <c r="H73" s="4">
         <v>0</v>
@@ -2190,10 +2148,10 @@
         <v>0.58696000000000004</v>
       </c>
       <c r="D74">
-        <v>0.71262999999999999</v>
+        <v>0.69462999999999997</v>
       </c>
       <c r="G74" s="3">
-        <v>0.70262999999999998</v>
+        <v>0.69262999999999997</v>
       </c>
       <c r="H74" s="4">
         <v>0</v>
@@ -2204,10 +2162,10 @@
         <v>0.60985999999999996</v>
       </c>
       <c r="D75">
-        <v>0.71462999999999999</v>
+        <v>0.69662999999999997</v>
       </c>
       <c r="G75" s="3">
-        <v>0.70462999999999998</v>
+        <v>0.69462999999999997</v>
       </c>
       <c r="H75" s="4">
         <v>0</v>
@@ -2218,10 +2176,10 @@
         <v>0.62804000000000004</v>
       </c>
       <c r="D76">
-        <v>0.71662999999999999</v>
+        <v>0.69862999999999997</v>
       </c>
       <c r="G76" s="3">
-        <v>0.70662999999999998</v>
+        <v>0.69662999999999997</v>
       </c>
       <c r="H76" s="4">
         <v>0</v>
@@ -2232,10 +2190,10 @@
         <v>0.61889000000000005</v>
       </c>
       <c r="D77">
-        <v>0.71862999999999999</v>
+        <v>0.70062999999999998</v>
       </c>
       <c r="G77" s="3">
-        <v>0.70862999999999998</v>
+        <v>0.69862999999999997</v>
       </c>
       <c r="H77" s="4">
         <v>0</v>
@@ -2246,10 +2204,10 @@
         <v>0.63798999999999995</v>
       </c>
       <c r="D78">
-        <v>0.72062999999999999</v>
+        <v>0.70262999999999998</v>
       </c>
       <c r="G78" s="3">
-        <v>0.71062999999999998</v>
+        <v>0.70062999999999998</v>
       </c>
       <c r="H78" s="4">
         <v>0</v>
@@ -2260,10 +2218,10 @@
         <v>0.61534999999999995</v>
       </c>
       <c r="D79">
-        <v>0.72262999999999999</v>
+        <v>0.70462999999999998</v>
       </c>
       <c r="G79" s="3">
-        <v>0.71262999999999999</v>
+        <v>0.70262999999999998</v>
       </c>
       <c r="H79" s="4">
         <v>0</v>
@@ -2273,27 +2231,21 @@
       <c r="A80" s="1">
         <v>0.60936000000000001</v>
       </c>
-      <c r="D80">
-        <v>0.72463</v>
-      </c>
       <c r="G80" s="3">
-        <v>0.71462999999999999</v>
+        <v>0.70462999999999998</v>
       </c>
       <c r="H80" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="1">
         <v>0.62299000000000004</v>
       </c>
-      <c r="D81">
-        <v>0.72663</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.71662999999999999</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2301,165 +2253,92 @@
       <c r="A82" s="1">
         <v>0.58565</v>
       </c>
-      <c r="D82">
-        <v>0.72863</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.71862999999999999</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>0.58481000000000005</v>
       </c>
-      <c r="D83">
-        <v>0.73063</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.72062999999999999</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>0.62763000000000002</v>
       </c>
-      <c r="D84">
-        <v>0.73263</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.72262999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0</v>
-      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>0.59086000000000005</v>
       </c>
-      <c r="D85">
-        <v>0.73463000000000001</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.72463</v>
-      </c>
-      <c r="H85" s="4">
-        <v>0</v>
-      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>0.62073</v>
       </c>
-      <c r="D86">
-        <v>0.73663000000000001</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.72663</v>
-      </c>
-      <c r="H86" s="4">
-        <v>0</v>
-      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>0.59016000000000002</v>
       </c>
-      <c r="D87">
-        <v>0.73863000000000001</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.72863</v>
-      </c>
-      <c r="H87" s="4">
-        <v>0</v>
-      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>0.58884999999999998</v>
       </c>
-      <c r="D88">
-        <v>0.74063000000000001</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0.73063</v>
-      </c>
-      <c r="H88" s="4">
-        <v>0</v>
-      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>0.60651999999999995</v>
       </c>
-      <c r="G89" s="3">
-        <v>0.73263</v>
-      </c>
-      <c r="H89" s="4">
-        <v>0</v>
-      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>0.57979000000000003</v>
       </c>
-      <c r="G90" s="3">
-        <v>0.73463000000000001</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0</v>
-      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>0.61502999999999997</v>
       </c>
-      <c r="G91" s="3">
-        <v>0.73663000000000001</v>
-      </c>
-      <c r="H91" s="4">
-        <v>0</v>
-      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>0.61670000000000003</v>
       </c>
-      <c r="G92" s="3">
-        <v>0.73863000000000001</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>0.60726999999999998</v>
       </c>
-      <c r="G93" s="3">
-        <v>0.74063000000000001</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
-      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1">
       <c r="A94" s="1">
         <v>0.60770000000000002</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0</v>
-      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
@@ -2997,8 +2876,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:G93">
-    <sortCondition ref="G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G80">
+    <sortCondition ref="G3"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
